--- a/ExperimentalResults/Result.xlsx
+++ b/ExperimentalResults/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csflhe\Desktop\FOVLeaks\ExperimentalResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csflhe\Desktop\Renderleaks\ExperimentalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0EFA4B-FF37-4936-A1DE-6F29ABD08DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB3434-3CEE-4F0C-8C6E-4225518F9CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.3" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="637">
   <si>
     <t>able</t>
   </si>
@@ -1950,24 +1950,6 @@
   </si>
   <si>
     <t>5.7 Cross-Device</t>
-  </si>
-  <si>
-    <t>实际按键</t>
-  </si>
-  <si>
-    <t>比例</t>
-  </si>
-  <si>
-    <t>间隔</t>
-  </si>
-  <si>
-    <t>检测率</t>
-  </si>
-  <si>
-    <t>CRA T-1</t>
-  </si>
-  <si>
-    <t>CRA T-3</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2147,9 +2129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2162,22 +2141,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2462,7 +2426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A586C3A2-4EE9-495A-95CC-AEEF2E985490}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -3049,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06163BC2-673D-4851-829C-85F15B9C4BBE}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3068,40 +3032,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2" t="s">
         <v>622</v>
       </c>
@@ -3406,7 +3370,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>630</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3437,7 +3401,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
@@ -3466,7 +3430,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +3459,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3488,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -3553,7 +3517,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -3582,7 +3546,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3611,7 +3575,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3604,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3669,7 +3633,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -3698,7 +3662,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
@@ -3727,7 +3691,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
@@ -3756,7 +3720,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3785,7 +3749,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3814,7 +3778,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
@@ -3843,7 +3807,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
@@ -3872,7 +3836,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
@@ -3901,7 +3865,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
@@ -3930,7 +3894,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
@@ -3959,7 +3923,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
@@ -4334,7 +4298,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>636</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -4362,7 +4326,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="5" t="s">
         <v>633</v>
       </c>
@@ -4385,8 +4349,8 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
       <c r="B49" s="5" t="s">
         <v>634</v>
       </c>
@@ -4409,8 +4373,8 @@
         <v>960</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
       <c r="B50" s="5" t="s">
         <v>635</v>
       </c>
@@ -4433,7 +4397,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" s="4">
         <f>SUM(C48:C50)</f>
         <v>85</v>
@@ -4454,16 +4418,8 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
         <v>5.8</v>
       </c>
       <c r="B53" s="12">
@@ -4487,16 +4443,9 @@
         <f t="shared" ref="I53:I56" si="9">C53*H53</f>
         <v>96</v>
       </c>
-      <c r="J53" s="1">
-        <v>41</v>
-      </c>
-      <c r="K53" s="1">
-        <f>J53/I53</f>
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
       <c r="B54" s="5">
         <v>0.5</v>
       </c>
@@ -4518,16 +4467,9 @@
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="J54" s="1">
-        <v>58</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" ref="K54:K56" si="10">J54/I54</f>
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
       <c r="B55" s="5">
         <v>1</v>
       </c>
@@ -4549,16 +4491,9 @@
         <f t="shared" si="9"/>
         <v>192</v>
       </c>
-      <c r="J55" s="1">
-        <v>182</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="10"/>
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
       <c r="B56" s="5">
         <v>1.5</v>
       </c>
@@ -4580,15 +4515,8 @@
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="J56" s="1">
-        <v>61</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="10"/>
-        <v>0.953125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -4597,78 +4525,14 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="C62" s="20">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D62" s="25">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="E62" s="25">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="C63" s="20">
-        <v>0.90625</v>
-      </c>
-      <c r="D63" s="23">
-        <v>0.629</v>
-      </c>
-      <c r="E63" s="23">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="22">
-        <v>1</v>
-      </c>
-      <c r="C64" s="20">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="D64" s="23">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="E64" s="23">
-        <v>0.90900000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="C65" s="20">
-        <v>0.953125</v>
-      </c>
-      <c r="D65" s="23">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="E65" s="23">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="B1:B2"/>
@@ -4676,12 +4540,6 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A33"/>
     <mergeCell ref="A35:A44"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4692,7 +4550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA8342-7055-4F23-A445-AAC108F130E2}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4705,25 +4563,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
@@ -10270,7 +10128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036BE159-09D4-454F-A48E-68F83217F178}">
   <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -10283,25 +10141,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
